--- a/data/trans_dic/P19C05-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P19C05-Provincia-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1315704180197183</v>
+        <v>0.1320344962868303</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1056468019330333</v>
+        <v>0.1061742014174535</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02694388775520851</v>
+        <v>0.02828460920705153</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.07617423437169475</v>
+        <v>0.07561590613432795</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1048725084014848</v>
+        <v>0.1078858585540267</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1091721850487714</v>
+        <v>0.1143130012773887</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.04899269163229681</v>
+        <v>0.05070127855238564</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.05433923047343577</v>
+        <v>0.05442713012316103</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1341573793639136</v>
+        <v>0.1342671949686631</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1242575512989054</v>
+        <v>0.1240820732264828</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.04452212727788697</v>
+        <v>0.04307944997590371</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.07059482374591049</v>
+        <v>0.07160877322397068</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2400086838307421</v>
+        <v>0.2469677920745717</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2153748557363759</v>
+        <v>0.2181425295090553</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.08754631319033462</v>
+        <v>0.08973737452092949</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1396824166267436</v>
+        <v>0.1386232579154134</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2078785234238271</v>
+        <v>0.2164271838670288</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2085065250412175</v>
+        <v>0.2096968669445193</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1183155004605915</v>
+        <v>0.1188953990770999</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.09742300709801237</v>
+        <v>0.09648531544313782</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2126108516654928</v>
+        <v>0.2085044099988338</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1906567370650713</v>
+        <v>0.1963451421168888</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.09012982443662619</v>
+        <v>0.0892727936209254</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1101070378507422</v>
+        <v>0.1100212495455584</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.1360866635961371</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.08103154643043345</v>
+        <v>0.08103154643043346</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.1350985451321872</v>
@@ -821,7 +821,7 @@
         <v>0.1489896461458532</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.1326884664653329</v>
+        <v>0.1326884664653328</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.1385056813204081</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1080868065093148</v>
+        <v>0.1093054280289628</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.08408491959498815</v>
+        <v>0.08436775296924964</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1025072478185612</v>
+        <v>0.1065096534732391</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.05941770496402449</v>
+        <v>0.05815314283553797</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1047001565829275</v>
+        <v>0.1071922150770372</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1266541840389026</v>
+        <v>0.1268018367212743</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1147513345054846</v>
+        <v>0.11617203358992</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1109507683839557</v>
+        <v>0.1096254974118791</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1154927700752157</v>
+        <v>0.1161330087864958</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1144158430341817</v>
+        <v>0.1151375611409574</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1180436945914866</v>
+        <v>0.1155743409511163</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.09230748122601946</v>
+        <v>0.08968668488370636</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1780304030347197</v>
+        <v>0.1821582201015917</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1497624545724044</v>
+        <v>0.1511147209474107</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1775478226790295</v>
+        <v>0.1773956067583111</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1115371611530405</v>
+        <v>0.1084074231633974</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1676811164559656</v>
+        <v>0.1706241476269088</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2012264516069106</v>
+        <v>0.2020768897716833</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1915062738187901</v>
+        <v>0.1878048850601772</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1589008921685159</v>
+        <v>0.1574116351528191</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1642489189163818</v>
+        <v>0.1632382190474792</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1609013312115287</v>
+        <v>0.1654343571601518</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1712335327325493</v>
+        <v>0.1705920891837617</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1283487449380207</v>
+        <v>0.1250709628742444</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.09290537142141816</v>
+        <v>0.08885702417922851</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1310915542357541</v>
+        <v>0.1267345615305863</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.07857810645882407</v>
+        <v>0.08217478520500079</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.0849191608087476</v>
+        <v>0.08709842574440607</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1914796636445094</v>
+        <v>0.1903398646788391</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1866860878491309</v>
+        <v>0.1837648739193148</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.06799161295907</v>
+        <v>0.06955737114990763</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1189009000596827</v>
+        <v>0.1231757070830392</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1579669938620389</v>
+        <v>0.1570645323812456</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1691385019561667</v>
+        <v>0.1699021165049148</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.0807880313389315</v>
+        <v>0.08099019610827642</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1109599031502392</v>
+        <v>0.1112611989264067</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1843816339855168</v>
+        <v>0.1773762753922782</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2162123654872718</v>
+        <v>0.2167141120316136</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1508546393290402</v>
+        <v>0.149048363527919</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1447057856452341</v>
+        <v>0.1468538171047359</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2846937205917401</v>
+        <v>0.2883297787424225</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2793554250525794</v>
+        <v>0.2842040842866726</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1329754145987217</v>
+        <v>0.1394693577936411</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1770163323599677</v>
+        <v>0.1816452857487741</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.228195924377102</v>
+        <v>0.2261345252838164</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2342763908968422</v>
+        <v>0.2363419109670754</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1320465990380489</v>
+        <v>0.1305569300116123</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1540746920899575</v>
+        <v>0.1505184238203985</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.126677409100752</v>
+        <v>0.1257475451046413</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1049992958995109</v>
+        <v>0.1042643985272639</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.09636820603508338</v>
+        <v>0.09636109216855085</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.08296376693047071</v>
+        <v>0.08517877893256709</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1744637486898639</v>
+        <v>0.1758625332282095</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1356680964190015</v>
+        <v>0.1358779746183919</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1214643237880705</v>
+        <v>0.1248559494562441</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1019961773141715</v>
+        <v>0.1018426832679012</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1681335873765912</v>
+        <v>0.1653821061308951</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1287723305440595</v>
+        <v>0.1289980668014025</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.120633456136266</v>
+        <v>0.1193711065067343</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1021169091450625</v>
+        <v>0.1027188779717266</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2095770298370893</v>
+        <v>0.2168636190442436</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1853151214062397</v>
+        <v>0.1896453127873926</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1714720565018316</v>
+        <v>0.1717760087028126</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1554447347318123</v>
+        <v>0.1581058386962334</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2710989520922162</v>
+        <v>0.2706509112649778</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2237235926406715</v>
+        <v>0.2173741465606903</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2060014700730975</v>
+        <v>0.207835750949876</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1533911504947384</v>
+        <v>0.1519538951546406</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2319161705682817</v>
+        <v>0.2311325416260726</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1880586866214916</v>
+        <v>0.1872585550784517</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1775389670615739</v>
+        <v>0.1776926537938205</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1436657105399265</v>
+        <v>0.1430526010748787</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.05256103501195901</v>
+        <v>0.05348814335541505</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1198649228450804</v>
+        <v>0.1238272896263485</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.08637500362560123</v>
+        <v>0.08986152575288246</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.07257701720979783</v>
+        <v>0.07423857569368468</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.08459599218533521</v>
+        <v>0.08506796178869114</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1279961399698627</v>
+        <v>0.1242037728560256</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1153354168320706</v>
+        <v>0.1128890168676367</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.167326376063023</v>
+        <v>0.1674543280983129</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.08056791802190053</v>
+        <v>0.08056575376801541</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1391011450464762</v>
+        <v>0.1386513502547835</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1201790173112126</v>
+        <v>0.1200536647139733</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1338723142075716</v>
+        <v>0.1353184914983392</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1335118192969283</v>
+        <v>0.1394793841183218</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2384430619022647</v>
+        <v>0.2398298122061954</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2199265690108657</v>
+        <v>0.2255706327372165</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1390847588667885</v>
+        <v>0.1458178587948778</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1902829978752386</v>
+        <v>0.1848556818206027</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2255051321345803</v>
+        <v>0.2342004648330713</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2444654202124069</v>
+        <v>0.2443427951442428</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2368844107034241</v>
+        <v>0.2361623405408974</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1495874263890783</v>
+        <v>0.1460361903705561</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2164249688451383</v>
+        <v>0.2178390649042057</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.211561023651314</v>
+        <v>0.2129237397838336</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1833674301377314</v>
+        <v>0.1836200256592078</v>
       </c>
     </row>
     <row r="19">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1395517726895981</v>
+        <v>0.1460807614990944</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.08152208573955276</v>
+        <v>0.08229078701180405</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.04262128714299095</v>
+        <v>0.04442296220201485</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.09929597272322443</v>
+        <v>0.09920716122103121</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1124550431455466</v>
+        <v>0.1140646418095273</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1632268279243681</v>
+        <v>0.1588382890885865</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.03248504535614501</v>
+        <v>0.03541189391612572</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.08470813609532173</v>
+        <v>0.08481909092633295</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1414721189309082</v>
+        <v>0.140535319497595</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1327547208483571</v>
+        <v>0.1343325097801289</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.04715869153600929</v>
+        <v>0.04627606646001479</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1002728479447321</v>
+        <v>0.09893498152914053</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2496552710389651</v>
+        <v>0.2537565490634672</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1599255964825481</v>
+        <v>0.1600970067348363</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1102418835775488</v>
+        <v>0.1119944188537663</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1629121522474597</v>
+        <v>0.1649410746853907</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2135035512195974</v>
+        <v>0.2205910389360756</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2640615213608245</v>
+        <v>0.2632021845482315</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1021800779220339</v>
+        <v>0.1003761182350847</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.140259331044731</v>
+        <v>0.139555216029433</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2183267583650902</v>
+        <v>0.2176078056259054</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.2009097159039878</v>
+        <v>0.1988770643911209</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.09348267141958845</v>
+        <v>0.09731716259728945</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1411918180580502</v>
+        <v>0.142727098581691</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1203201626655437</v>
+        <v>0.1216683758914577</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1661216870708252</v>
+        <v>0.1679788153284872</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.0547842365739579</v>
+        <v>0.05912374735280386</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1053672751796261</v>
+        <v>0.1031421376873155</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1225928301884723</v>
+        <v>0.1210282363341083</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1755511875321727</v>
+        <v>0.1753011080801419</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.06522403697079571</v>
+        <v>0.06573499634079416</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.105526428069659</v>
+        <v>0.1041653671719642</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1308919699460628</v>
+        <v>0.1296336752909172</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1815067789465287</v>
+        <v>0.1813478298659129</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.06858625242382037</v>
+        <v>0.06701456234239346</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1068812365698507</v>
+        <v>0.1102950921667067</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1881029980503553</v>
+        <v>0.1923550373007565</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2359939284931927</v>
+        <v>0.2359476091514287</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1109940168760382</v>
+        <v>0.112805370907745</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.162510153563292</v>
+        <v>0.1584919393039886</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1837165654298494</v>
+        <v>0.1817971080049391</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.246111473826115</v>
+        <v>0.2446213793314424</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1194233731336018</v>
+        <v>0.1187027056294906</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1488923515114675</v>
+        <v>0.1497560989233346</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1791816394082941</v>
+        <v>0.1754676794569471</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.2302549561991354</v>
+        <v>0.2306290929314762</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1065403103406527</v>
+        <v>0.106583819888774</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1442049912677277</v>
+        <v>0.1453187289727021</v>
       </c>
     </row>
     <row r="25">
@@ -1637,7 +1637,7 @@
         <v>0.1205716519620151</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.09363842637827835</v>
+        <v>0.09363842637827832</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.1090271130185823</v>
@@ -1649,7 +1649,7 @@
         <v>0.1195708478741197</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.08590184839320422</v>
+        <v>0.08590184839320421</v>
       </c>
     </row>
     <row r="26">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.06021157586012849</v>
+        <v>0.06165334650421953</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.10311459891551</v>
+        <v>0.1018138614245346</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.09313516574605832</v>
+        <v>0.0963587410564785</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.06167225523547878</v>
+        <v>0.06229736235585186</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.1086119793064286</v>
+        <v>0.1052474133333036</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.1295963763850995</v>
+        <v>0.1279522131328135</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.09611600609094249</v>
+        <v>0.09804854191154685</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.078927100310802</v>
+        <v>0.07698579749387224</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.09078722319673994</v>
+        <v>0.09258630188075112</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.1239570980919238</v>
+        <v>0.1248156809301238</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.1010830936013056</v>
+        <v>0.1023678757311094</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.07532685617334844</v>
+        <v>0.07368410940843277</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1080058928080659</v>
+        <v>0.1116069464605394</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1596021260880697</v>
+        <v>0.1601723417950931</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1460439951259155</v>
+        <v>0.1480405850675342</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.09743188236425683</v>
+        <v>0.09925785419998022</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1670339973857331</v>
+        <v>0.1627739808247493</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1850582649655066</v>
+        <v>0.1813925182547025</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.1464642652634035</v>
+        <v>0.1501041073529041</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.1115950921366175</v>
+        <v>0.1110629111867145</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.1280260208372877</v>
+        <v>0.1280975480656896</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.1629731115187568</v>
+        <v>0.1657909747789087</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.1377993852553427</v>
+        <v>0.1385181677291253</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.09980840757502915</v>
+        <v>0.09822169903163211</v>
       </c>
     </row>
     <row r="28">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.1222325170665539</v>
+        <v>0.1233189624332062</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.1356881827708394</v>
+        <v>0.1367755886967627</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.09535404479675966</v>
+        <v>0.09529982325498546</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.09336382137377135</v>
+        <v>0.09353810171466535</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.1481952969562092</v>
+        <v>0.1472937971892109</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.1687165810683336</v>
+        <v>0.1683309873249518</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.1037821014008723</v>
+        <v>0.1045585965468454</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.1128419101089293</v>
+        <v>0.1118747752307071</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.1392282296822801</v>
+        <v>0.1389100731941768</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.1575713248318974</v>
+        <v>0.1575813024857926</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.1030703796187409</v>
+        <v>0.1032979491098011</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.106213935105234</v>
+        <v>0.1062433508840256</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.1506208364361623</v>
+        <v>0.1525321313652471</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.1635878062444834</v>
+        <v>0.1653941477088716</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.1200427092386084</v>
+        <v>0.118119105360795</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.1138282934511194</v>
+        <v>0.1137421539346241</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.1761592366774703</v>
+        <v>0.1746100608037576</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.196065453304522</v>
+        <v>0.1952558437214867</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.129221918957221</v>
+        <v>0.1289392457201006</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.1297661371702448</v>
+        <v>0.1299101034993521</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.1595712881084231</v>
+        <v>0.1591039172566758</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.1765904805406887</v>
+        <v>0.1773289951869211</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.121092266250732</v>
+        <v>0.1207856635563722</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.1193907724463658</v>
+        <v>0.1196059855734838</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>25195</v>
+        <v>25284</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>26471</v>
+        <v>26603</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>6607</v>
+        <v>6936</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>22922</v>
+        <v>22754</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>21103</v>
+        <v>21709</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>27210</v>
+        <v>28491</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>12069</v>
+        <v>12489</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>16816</v>
+        <v>16843</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>52686</v>
+        <v>52729</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>62104</v>
+        <v>62016</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>21885</v>
+        <v>21176</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>43090</v>
+        <v>43709</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>45960</v>
+        <v>47293</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>53964</v>
+        <v>54658</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>21468</v>
+        <v>22005</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>42033</v>
+        <v>41714</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>41830</v>
+        <v>43550</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>51968</v>
+        <v>52265</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>29145</v>
+        <v>29288</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>30149</v>
+        <v>29859</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>83496</v>
+        <v>81883</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>95290</v>
+        <v>98133</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>44303</v>
+        <v>43882</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>67207</v>
+        <v>67155</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>44289</v>
+        <v>44789</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>34166</v>
+        <v>34281</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>37227</v>
+        <v>38681</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>30780</v>
+        <v>30125</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>46194</v>
+        <v>47293</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>55452</v>
+        <v>55517</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>45135</v>
+        <v>45694</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>58983</v>
+        <v>58278</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>98279</v>
+        <v>98824</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>96584</v>
+        <v>97194</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>89299</v>
+        <v>87431</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>96890</v>
+        <v>94139</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>72949</v>
+        <v>74640</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>60853</v>
+        <v>61402</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>64479</v>
+        <v>64424</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>57779</v>
+        <v>56158</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>73981</v>
+        <v>75280</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>88102</v>
+        <v>88474</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>75325</v>
+        <v>73869</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>84474</v>
+        <v>83682</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>139769</v>
+        <v>138909</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>135825</v>
+        <v>139652</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>129537</v>
+        <v>129052</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>134720</v>
+        <v>131279</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>21976</v>
+        <v>21018</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>38497</v>
+        <v>37217</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>22827</v>
+        <v>23872</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>25495</v>
+        <v>26150</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>55300</v>
+        <v>54971</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>61373</v>
+        <v>60413</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>20925</v>
+        <v>21407</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>40629</v>
+        <v>42090</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>82987</v>
+        <v>82513</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>105275</v>
+        <v>105750</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>48333</v>
+        <v>48454</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>71229</v>
+        <v>71422</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>43613</v>
+        <v>41956</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>63494</v>
+        <v>63641</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>43824</v>
+        <v>43300</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>43445</v>
+        <v>44090</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>82221</v>
+        <v>83271</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>91839</v>
+        <v>93433</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>40925</v>
+        <v>42924</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>60487</v>
+        <v>62069</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>119881</v>
+        <v>118798</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>145817</v>
+        <v>147103</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>79000</v>
+        <v>78108</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>98906</v>
+        <v>96623</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>33890</v>
+        <v>33641</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>32873</v>
+        <v>32643</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>31806</v>
+        <v>31804</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>30758</v>
+        <v>31579</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>52258</v>
+        <v>52677</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>46509</v>
+        <v>46581</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>42374</v>
+        <v>43557</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>42799</v>
+        <v>42735</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>95343</v>
+        <v>93782</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>84461</v>
+        <v>84609</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>81899</v>
+        <v>81042</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>80708</v>
+        <v>81184</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>56068</v>
+        <v>58018</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>58018</v>
+        <v>59374</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>56594</v>
+        <v>56694</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>57629</v>
+        <v>58616</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>81203</v>
+        <v>81069</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>76696</v>
+        <v>74519</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>71866</v>
+        <v>72506</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>64365</v>
+        <v>63762</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>131512</v>
+        <v>131067</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>123346</v>
+        <v>122821</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>120533</v>
+        <v>120637</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>113546</v>
+        <v>113062</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>8950</v>
+        <v>9108</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>23021</v>
+        <v>23782</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>10298</v>
+        <v>10713</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>13739</v>
+        <v>14053</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>14712</v>
+        <v>14794</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>24906</v>
+        <v>24168</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>16781</v>
+        <v>16425</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>36779</v>
+        <v>36807</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>27730</v>
+        <v>27729</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>53782</v>
+        <v>53608</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>31814</v>
+        <v>31781</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>54767</v>
+        <v>55359</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>22734</v>
+        <v>23750</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>45795</v>
+        <v>46061</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>26220</v>
+        <v>26893</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>26329</v>
+        <v>27603</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>33091</v>
+        <v>32148</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>43879</v>
+        <v>45571</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>35570</v>
+        <v>35552</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>52068</v>
+        <v>51909</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>51486</v>
+        <v>50263</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>83679</v>
+        <v>84225</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>56005</v>
+        <v>56366</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>75016</v>
+        <v>75119</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>26413</v>
+        <v>27649</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>20378</v>
+        <v>20570</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>9957</v>
+        <v>10378</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>24798</v>
+        <v>24776</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>22996</v>
+        <v>23325</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>43227</v>
+        <v>42065</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>8028</v>
+        <v>8752</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>21309</v>
+        <v>21337</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>55706</v>
+        <v>55337</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>68343</v>
+        <v>69155</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>22672</v>
+        <v>22247</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>50266</v>
+        <v>49596</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>47252</v>
+        <v>48029</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>39977</v>
+        <v>40020</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>25754</v>
+        <v>26164</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>40685</v>
+        <v>41192</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>43659</v>
+        <v>45108</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>69931</v>
+        <v>69704</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>25252</v>
+        <v>24807</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>35284</v>
+        <v>35107</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>85968</v>
+        <v>85685</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>103429</v>
+        <v>102383</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>44942</v>
+        <v>46786</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>70779</v>
+        <v>71548</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>55868</v>
+        <v>56494</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>95535</v>
+        <v>96603</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>24231</v>
+        <v>26151</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>73513</v>
+        <v>71960</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>66123</v>
+        <v>65279</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>109893</v>
+        <v>109736</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>31767</v>
+        <v>32016</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>78236</v>
+        <v>77227</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>131375</v>
+        <v>130112</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>218004</v>
+        <v>217813</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>63741</v>
+        <v>62281</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>153809</v>
+        <v>158722</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>87341</v>
+        <v>89315</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>135718</v>
+        <v>135691</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>49093</v>
+        <v>49895</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>113380</v>
+        <v>110577</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>99091</v>
+        <v>98056</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>154063</v>
+        <v>153130</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>58165</v>
+        <v>57814</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>110387</v>
+        <v>111027</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>179843</v>
+        <v>176116</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>276554</v>
+        <v>277004</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>99014</v>
+        <v>99055</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>207520</v>
+        <v>209123</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>31644</v>
+        <v>32402</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>65365</v>
+        <v>64540</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>59630</v>
+        <v>61694</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>47552</v>
+        <v>48034</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>64343</v>
+        <v>62350</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>91015</v>
+        <v>89860</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>66449</v>
+        <v>67785</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>63955</v>
+        <v>62382</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>101497</v>
+        <v>103508</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>165631</v>
+        <v>166779</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>134602</v>
+        <v>136312</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>119119</v>
+        <v>116521</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>56763</v>
+        <v>58655</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>101173</v>
+        <v>101534</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>93505</v>
+        <v>94783</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>75125</v>
+        <v>76533</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>98953</v>
+        <v>96429</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>129965</v>
+        <v>127391</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>101257</v>
+        <v>103773</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>90426</v>
+        <v>89995</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>143128</v>
+        <v>143208</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>217765</v>
+        <v>221530</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>183493</v>
+        <v>184450</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>157833</v>
+        <v>155324</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>300049</v>
+        <v>302716</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>395485</v>
+        <v>398654</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>254055</v>
+        <v>253910</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>317220</v>
+        <v>317812</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>406194</v>
+        <v>403723</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>530837</v>
+        <v>529623</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>297576</v>
+        <v>299802</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>409102</v>
+        <v>405596</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>723385</v>
+        <v>721732</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>955037</v>
+        <v>955097</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>570149</v>
+        <v>571408</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>745954</v>
+        <v>746160</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>369735</v>
+        <v>374427</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>476803</v>
+        <v>482068</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>319834</v>
+        <v>314709</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>386752</v>
+        <v>386459</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>482841</v>
+        <v>478595</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>616885</v>
+        <v>614338</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>370520</v>
+        <v>369709</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>470460</v>
+        <v>470982</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>829081</v>
+        <v>826653</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>1070311</v>
+        <v>1074787</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>669840</v>
+        <v>668144</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>838496</v>
+        <v>840008</v>
       </c>
     </row>
     <row r="40">
